--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_376__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_376__Reeval_LHS_Modell_1.3.xlsx
@@ -5906,7 +5906,7 @@
                   <c:v>74.56882476806641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.54004669189453</c:v>
+                  <c:v>75.5400390625</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>67.19278717041016</c:v>
@@ -5948,7 +5948,7 @@
                   <c:v>70.23860931396484</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61.43819427490234</c:v>
+                  <c:v>61.43818664550781</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>70.46974182128906</c:v>
@@ -5975,7 +5975,7 @@
                   <c:v>72.19393920898438</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.15314483642578</c:v>
+                  <c:v>64.15313720703125</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>64.39792633056641</c:v>
@@ -6062,7 +6062,7 @@
                   <c:v>67.76082611083984</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64.93281555175781</c:v>
+                  <c:v>64.93280792236328</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>70.66928100585938</c:v>
@@ -6143,7 +6143,7 @@
                   <c:v>71.10072326660156</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>62.45435333251953</c:v>
+                  <c:v>62.454345703125</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>64.31121063232422</c:v>
@@ -6158,7 +6158,7 @@
                   <c:v>64.85002136230469</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>73.28770446777344</c:v>
+                  <c:v>73.28769683837891</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>66.45658874511719</c:v>
@@ -7151,7 +7151,7 @@
         <v>50.4651</v>
       </c>
       <c r="F13">
-        <v>75.54004669189453</v>
+        <v>75.5400390625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>36.6299</v>
       </c>
       <c r="F27">
-        <v>61.43819427490234</v>
+        <v>61.43818664550781</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>68.4312</v>
       </c>
       <c r="F36">
-        <v>64.15314483642578</v>
+        <v>64.15313720703125</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>70.2961</v>
       </c>
       <c r="F65">
-        <v>64.93281555175781</v>
+        <v>64.93280792236328</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>78.43470000000001</v>
       </c>
       <c r="F92">
-        <v>62.45435333251953</v>
+        <v>62.454345703125</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>81.25369999999999</v>
       </c>
       <c r="F97">
-        <v>73.28770446777344</v>
+        <v>73.28769683837891</v>
       </c>
     </row>
     <row r="98" spans="1:6">
